--- a/2_data-toolkit/ProgramofStudy_Template_Filled.xlsx
+++ b/2_data-toolkit/ProgramofStudy_Template_Filled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bl517\Documents\Github\researched-pdp-toolkit\2_data-toolkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194EB9AF-19C0-451E-94AA-ACFE81459DE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6920B72B-FF13-4462-93CE-5680C8BAEE18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>ProgramofStudyTerm1</t>
-  </si>
-  <si>
-    <t>ProgramofStudyTerm1_Label</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>ProgramofStudy_ID</t>
+  </si>
+  <si>
+    <t>ProgramofStudy</t>
+  </si>
+  <si>
+    <t>ProgramofStudy_Label</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Pathway 1</t>
@@ -40,7 +46,16 @@
     <t>Pathway 4</t>
   </si>
   <si>
-    <t>ProgramofStudyTerm1_ID</t>
+    <t>Pathway 5</t>
+  </si>
+  <si>
+    <t>Pathway 6</t>
+  </si>
+  <si>
+    <t>Pathway 7</t>
+  </si>
+  <si>
+    <t>Pathway 8</t>
   </si>
 </sst>
 </file>
@@ -397,23 +412,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -421,10 +436,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>513899</v>
+        <v>230101</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -432,10 +447,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>230101</v>
+        <v>234501</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -443,10 +458,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>540101</v>
+        <v>261504</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -454,10 +469,54 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>321624</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>422814</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>513801</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>513899</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>540101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
